--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il23a</t>
+  </si>
+  <si>
+    <t>Il12rb1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il23a</t>
-  </si>
-  <si>
-    <t>Il12rb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H2">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I2">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J2">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N2">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O2">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P2">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q2">
-        <v>0.305485521267</v>
+        <v>0.2539946606556667</v>
       </c>
       <c r="R2">
-        <v>2.749369691403</v>
+        <v>2.285951945901</v>
       </c>
       <c r="S2">
-        <v>0.001698607614618457</v>
+        <v>0.002131984719376818</v>
       </c>
       <c r="T2">
-        <v>0.001698607614618458</v>
+        <v>0.002131984719376818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H3">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I3">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J3">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.737354</v>
       </c>
       <c r="O3">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P3">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q3">
-        <v>0.240527086862</v>
+        <v>0.1392074375784444</v>
       </c>
       <c r="R3">
-        <v>2.164743781758</v>
+        <v>1.252866938206</v>
       </c>
       <c r="S3">
-        <v>0.001337415729463323</v>
+        <v>0.001168481766406866</v>
       </c>
       <c r="T3">
-        <v>0.001337415729463324</v>
+        <v>0.001168481766406865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H4">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I4">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J4">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N4">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O4">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P4">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q4">
-        <v>0.8540327267059999</v>
+        <v>0.02196854571744444</v>
       </c>
       <c r="R4">
-        <v>7.686294540353999</v>
+        <v>0.197716911457</v>
       </c>
       <c r="S4">
-        <v>0.004748724216779708</v>
+        <v>0.000184399954139263</v>
       </c>
       <c r="T4">
-        <v>0.00474872421677971</v>
+        <v>0.0001843999541392629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H5">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I5">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J5">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N5">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O5">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P5">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q5">
-        <v>0.2794904041969999</v>
+        <v>0.1066187067313333</v>
       </c>
       <c r="R5">
-        <v>2.515413637773</v>
+        <v>0.9595683605819999</v>
       </c>
       <c r="S5">
-        <v>0.001554065563607772</v>
+        <v>0.0008949379209946382</v>
       </c>
       <c r="T5">
-        <v>0.001554065563607773</v>
+        <v>0.0008949379209946379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H6">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I6">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J6">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N6">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O6">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P6">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q6">
-        <v>0.040312492943</v>
+        <v>0.1011080213678889</v>
       </c>
       <c r="R6">
-        <v>0.362812436487</v>
+        <v>0.909972192311</v>
       </c>
       <c r="S6">
-        <v>0.0002241517280204717</v>
+        <v>0.0008486822361002051</v>
       </c>
       <c r="T6">
-        <v>0.0002241517280204718</v>
+        <v>0.0008486822361002049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.978609</v>
+        <v>0.5663796666666666</v>
       </c>
       <c r="H7">
-        <v>2.935827</v>
+        <v>1.699139</v>
       </c>
       <c r="I7">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="J7">
-        <v>0.01701348816798059</v>
+        <v>0.005761481588340165</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N7">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O7">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P7">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q7">
-        <v>1.339936886634</v>
+        <v>0.063498523569</v>
       </c>
       <c r="R7">
-        <v>12.059431979706</v>
+        <v>0.571486712121</v>
       </c>
       <c r="S7">
-        <v>0.007450523315490854</v>
+        <v>0.0005329949913223754</v>
       </c>
       <c r="T7">
-        <v>0.007450523315490857</v>
+        <v>0.0005329949913223753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.64754</v>
       </c>
       <c r="I8">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J8">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N8">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O8">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P8">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q8">
-        <v>0.06737934300666668</v>
+        <v>0.09679708520666667</v>
       </c>
       <c r="R8">
-        <v>0.6064140870600001</v>
+        <v>0.8711737668600001</v>
       </c>
       <c r="S8">
-        <v>0.000374652993779959</v>
+        <v>0.000812497026544188</v>
       </c>
       <c r="T8">
-        <v>0.0003746529937799593</v>
+        <v>0.0008124970265441878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.64754</v>
       </c>
       <c r="I9">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J9">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.737354</v>
       </c>
       <c r="O9">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P9">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q9">
         <v>0.05305180101777777</v>
@@ -1013,10 +1013,10 @@
         <v>0.47746620916</v>
       </c>
       <c r="S9">
-        <v>0.0002949867895678731</v>
+        <v>0.0004453071132020993</v>
       </c>
       <c r="T9">
-        <v>0.0002949867895678732</v>
+        <v>0.0004453071132020992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>0.64754</v>
       </c>
       <c r="I10">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J10">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N10">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O10">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P10">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q10">
-        <v>0.1883695298977778</v>
+        <v>0.008372188557777776</v>
       </c>
       <c r="R10">
-        <v>1.69532576908</v>
+        <v>0.07534969701999999</v>
       </c>
       <c r="S10">
-        <v>0.001047401253320966</v>
+        <v>7.027461926501501E-05</v>
       </c>
       <c r="T10">
-        <v>0.001047401253320967</v>
+        <v>7.0274619265015E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.64754</v>
       </c>
       <c r="I11">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J11">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N11">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O11">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P11">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q11">
-        <v>0.0616457360511111</v>
+        <v>0.04063227161333333</v>
       </c>
       <c r="R11">
-        <v>0.55481162446</v>
+        <v>0.36569044452</v>
       </c>
       <c r="S11">
-        <v>0.0003427721098888241</v>
+        <v>0.0003410598552330728</v>
       </c>
       <c r="T11">
-        <v>0.0003427721098888244</v>
+        <v>0.0003410598552330727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.64754</v>
       </c>
       <c r="I12">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J12">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N12">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O12">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P12">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q12">
-        <v>0.008891515637777776</v>
+        <v>0.03853215549555556</v>
       </c>
       <c r="R12">
-        <v>0.08002364074</v>
+        <v>0.34678939946</v>
       </c>
       <c r="S12">
-        <v>4.943997380035548E-05</v>
+        <v>0.0003234318647057873</v>
       </c>
       <c r="T12">
-        <v>4.943997380035552E-05</v>
+        <v>0.0003234318647057873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,40 +1231,40 @@
         <v>0.64754</v>
       </c>
       <c r="I13">
-        <v>0.003752576064016766</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="J13">
-        <v>0.003752576064016767</v>
+        <v>0.00219569428264185</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N13">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O13">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P13">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q13">
-        <v>0.2955428680133333</v>
+        <v>0.02419921734</v>
       </c>
       <c r="R13">
-        <v>2.65988581212</v>
+        <v>0.21779295606</v>
       </c>
       <c r="S13">
-        <v>0.001643322943658788</v>
+        <v>0.0002031238036916879</v>
       </c>
       <c r="T13">
-        <v>0.001643322943658788</v>
+        <v>0.0002031238036916879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H14">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I14">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J14">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N14">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O14">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P14">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q14">
-        <v>0.4891941751473334</v>
+        <v>1.305355946009667</v>
       </c>
       <c r="R14">
-        <v>4.402747576326001</v>
+        <v>11.748203514087</v>
       </c>
       <c r="S14">
-        <v>0.002720092747721391</v>
+        <v>0.01095691902757402</v>
       </c>
       <c r="T14">
-        <v>0.002720092747721393</v>
+        <v>0.01095691902757402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H15">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I15">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J15">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.737354</v>
       </c>
       <c r="O15">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P15">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q15">
-        <v>0.3851719366928888</v>
+        <v>0.7154294342357778</v>
       </c>
       <c r="R15">
-        <v>3.466547430236</v>
+        <v>6.438864908122</v>
       </c>
       <c r="S15">
-        <v>0.002141692286725587</v>
+        <v>0.006005183800500695</v>
       </c>
       <c r="T15">
-        <v>0.002141692286725589</v>
+        <v>0.006005183800500693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H16">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I16">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J16">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N16">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O16">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P16">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q16">
-        <v>1.367619105340889</v>
+        <v>0.1129030496287778</v>
       </c>
       <c r="R16">
-        <v>12.308571948068</v>
+        <v>1.016127446659</v>
       </c>
       <c r="S16">
-        <v>0.007604446248695789</v>
+        <v>0.0009476875457075739</v>
       </c>
       <c r="T16">
-        <v>0.007604446248695792</v>
+        <v>0.0009476875457075735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H17">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I17">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J17">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N17">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O17">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P17">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q17">
-        <v>0.4475664744295555</v>
+        <v>0.5479460175593334</v>
       </c>
       <c r="R17">
-        <v>4.028098269866</v>
+        <v>4.931514158034</v>
       </c>
       <c r="S17">
-        <v>0.00248862799899939</v>
+        <v>0.004599358637950241</v>
       </c>
       <c r="T17">
-        <v>0.002488627998999392</v>
+        <v>0.004599358637950238</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H18">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I18">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J18">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N18">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O18">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P18">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q18">
-        <v>0.06455506189488888</v>
+        <v>0.5196249265285556</v>
       </c>
       <c r="R18">
-        <v>0.580995557054</v>
+        <v>4.676624338757001</v>
       </c>
       <c r="S18">
-        <v>0.0003589489912387195</v>
+        <v>0.00436163658049505</v>
       </c>
       <c r="T18">
-        <v>0.0003589489912387198</v>
+        <v>0.004361636580495049</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.567111333333333</v>
+        <v>2.910797666666667</v>
       </c>
       <c r="H19">
-        <v>4.701334</v>
+        <v>8.732393</v>
       </c>
       <c r="I19">
-        <v>0.02724482416120734</v>
+        <v>0.0296100092409453</v>
       </c>
       <c r="J19">
-        <v>0.02724482416120734</v>
+        <v>0.02961000924094529</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N19">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O19">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P19">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q19">
-        <v>2.145729582494666</v>
+        <v>0.326338258803</v>
       </c>
       <c r="R19">
-        <v>19.311566242452</v>
+        <v>2.937044329227</v>
       </c>
       <c r="S19">
-        <v>0.01193101588782646</v>
+        <v>0.002739223648717717</v>
       </c>
       <c r="T19">
-        <v>0.01193101588782646</v>
+        <v>0.002739223648717716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H20">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I20">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J20">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N20">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O20">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P20">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q20">
-        <v>0.1272314995943334</v>
+        <v>42.15844138651801</v>
       </c>
       <c r="R20">
-        <v>1.145083496349</v>
+        <v>379.4259724786621</v>
       </c>
       <c r="S20">
-        <v>0.0007074521670746223</v>
+        <v>0.3538702451334163</v>
       </c>
       <c r="T20">
-        <v>0.0007074521670746227</v>
+        <v>0.3538702451334162</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H21">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I21">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J21">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.737354</v>
       </c>
       <c r="O21">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P21">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q21">
-        <v>0.1001769963682222</v>
+        <v>23.105873889508</v>
       </c>
       <c r="R21">
-        <v>0.901592967314</v>
+        <v>207.952865005572</v>
       </c>
       <c r="S21">
-        <v>0.0005570195541016936</v>
+        <v>0.1939464787689419</v>
       </c>
       <c r="T21">
-        <v>0.000557019554101694</v>
+        <v>0.1939464787689419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H22">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I22">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J22">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N22">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O22">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P22">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q22">
-        <v>0.3556956286202222</v>
+        <v>3.646374473326</v>
       </c>
       <c r="R22">
-        <v>3.201260657582</v>
+        <v>32.817370259934</v>
       </c>
       <c r="S22">
-        <v>0.001977793581689057</v>
+        <v>0.03060700031326933</v>
       </c>
       <c r="T22">
-        <v>0.001977793581689057</v>
+        <v>0.03060700031326932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H23">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I23">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J23">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N23">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O23">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P23">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q23">
-        <v>0.1164048073398889</v>
+        <v>17.696744045076</v>
       </c>
       <c r="R23">
-        <v>1.047643266059</v>
+        <v>159.270696405684</v>
       </c>
       <c r="S23">
-        <v>0.0006472519263946178</v>
+        <v>0.1485432323239783</v>
       </c>
       <c r="T23">
-        <v>0.0006472519263946182</v>
+        <v>0.1485432323239783</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H24">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I24">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J24">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N24">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O24">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P24">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q24">
-        <v>0.01678972839122222</v>
+        <v>16.782071644898</v>
       </c>
       <c r="R24">
-        <v>0.151107555521</v>
+        <v>151.038644804082</v>
       </c>
       <c r="S24">
-        <v>9.335683201751316E-05</v>
+        <v>0.14086563951403</v>
       </c>
       <c r="T24">
-        <v>9.335683201751321E-05</v>
+        <v>0.14086563951403</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4075803333333334</v>
+        <v>94.008606</v>
       </c>
       <c r="H25">
-        <v>1.222741</v>
+        <v>282.025818</v>
       </c>
       <c r="I25">
-        <v>0.007085938488883969</v>
+        <v>0.9562999600642293</v>
       </c>
       <c r="J25">
-        <v>0.00708593848888397</v>
+        <v>0.9562999600642292</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N25">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O25">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P25">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q25">
-        <v>0.5580695894886667</v>
+        <v>10.539586844478</v>
       </c>
       <c r="R25">
-        <v>5.022626305398</v>
+        <v>94.85628160030201</v>
       </c>
       <c r="S25">
-        <v>0.003103064427606465</v>
+        <v>0.0884673640105935</v>
       </c>
       <c r="T25">
-        <v>0.003103064427606466</v>
+        <v>0.08846736401059349</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H26">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I26">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J26">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N26">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O26">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P26">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q26">
-        <v>16.76630667468033</v>
+        <v>0.2703666332953333</v>
       </c>
       <c r="R26">
-        <v>150.896760072123</v>
+        <v>2.433299699658</v>
       </c>
       <c r="S26">
-        <v>0.09322659898420775</v>
+        <v>0.00226940806285861</v>
       </c>
       <c r="T26">
-        <v>0.09322659898420779</v>
+        <v>0.002269408062858609</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H27">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I27">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J27">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.737354</v>
       </c>
       <c r="O27">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P27">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q27">
-        <v>13.20111959863089</v>
+        <v>0.1481804622608889</v>
       </c>
       <c r="R27">
-        <v>118.810076387678</v>
+        <v>1.333624160348</v>
       </c>
       <c r="S27">
-        <v>0.07340289706275409</v>
+        <v>0.001243799694193927</v>
       </c>
       <c r="T27">
-        <v>0.07340289706275412</v>
+        <v>0.001243799694193927</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H28">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I28">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J28">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N28">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O28">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P28">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q28">
-        <v>46.87284211303488</v>
+        <v>0.02338459292288889</v>
       </c>
       <c r="R28">
-        <v>421.855579017314</v>
+        <v>0.210461336306</v>
       </c>
       <c r="S28">
-        <v>0.2606295912218428</v>
+        <v>0.0001962859953502496</v>
       </c>
       <c r="T28">
-        <v>0.2606295912218428</v>
+        <v>0.0001962859953502495</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H29">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I29">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J29">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N29">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O29">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P29">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q29">
-        <v>15.33958732303255</v>
+        <v>0.1134911289506667</v>
       </c>
       <c r="R29">
-        <v>138.056285907293</v>
+        <v>1.021420160556</v>
       </c>
       <c r="S29">
-        <v>0.08529353444949188</v>
+        <v>0.0009526237759606511</v>
       </c>
       <c r="T29">
-        <v>0.08529353444949192</v>
+        <v>0.0009526237759606507</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H30">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I30">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J30">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2297,28 +2297,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N30">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O30">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P30">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q30">
-        <v>2.212516052151889</v>
+        <v>0.1076252361597778</v>
       </c>
       <c r="R30">
-        <v>19.912644469367</v>
+        <v>0.9686271254380001</v>
       </c>
       <c r="S30">
-        <v>0.01230237229595583</v>
+        <v>0.0009033865448968385</v>
       </c>
       <c r="T30">
-        <v>0.01230237229595583</v>
+        <v>0.0009033865448968383</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>53.71010233333333</v>
+        <v>0.6028873333333333</v>
       </c>
       <c r="H31">
-        <v>161.130307</v>
+        <v>1.808662</v>
       </c>
       <c r="I31">
-        <v>0.9337704747751076</v>
+        <v>0.00613285482384343</v>
       </c>
       <c r="J31">
-        <v>0.9337704747751077</v>
+        <v>0.006132854823843428</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N31">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O31">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P31">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q31">
-        <v>73.54126857746067</v>
+        <v>0.067591507602</v>
       </c>
       <c r="R31">
-        <v>661.8714171971459</v>
+        <v>0.6083235684179999</v>
       </c>
       <c r="S31">
-        <v>0.4089154807608552</v>
+        <v>0.0005673507505831543</v>
       </c>
       <c r="T31">
-        <v>0.4089154807608553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H32">
-        <v>1.921045</v>
-      </c>
-      <c r="I32">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J32">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M32">
-        <v>0.312163</v>
-      </c>
-      <c r="N32">
-        <v>0.9364890000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.09983888064854562</v>
-      </c>
-      <c r="P32">
-        <v>0.09983888064854567</v>
-      </c>
-      <c r="Q32">
-        <v>0.1998930567783333</v>
-      </c>
-      <c r="R32">
-        <v>1.799037511005</v>
-      </c>
-      <c r="S32">
-        <v>0.001111476141143437</v>
-      </c>
-      <c r="T32">
-        <v>0.001111476141143438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H33">
-        <v>1.921045</v>
-      </c>
-      <c r="I33">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J33">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.2457846666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.737354</v>
-      </c>
-      <c r="O33">
-        <v>0.07860914330197974</v>
-      </c>
-      <c r="P33">
-        <v>0.07860914330197977</v>
-      </c>
-      <c r="Q33">
-        <v>0.1573878016588889</v>
-      </c>
-      <c r="R33">
-        <v>1.41649021493</v>
-      </c>
-      <c r="S33">
-        <v>0.000875131879367166</v>
-      </c>
-      <c r="T33">
-        <v>0.0008751318793671665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H34">
-        <v>1.921045</v>
-      </c>
-      <c r="I34">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J34">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.8727006666666667</v>
-      </c>
-      <c r="N34">
-        <v>2.618102</v>
-      </c>
-      <c r="O34">
-        <v>0.279115262543093</v>
-      </c>
-      <c r="P34">
-        <v>0.279115262543093</v>
-      </c>
-      <c r="Q34">
-        <v>0.5588324173988889</v>
-      </c>
-      <c r="R34">
-        <v>5.02949175659</v>
-      </c>
-      <c r="S34">
-        <v>0.003107306020764702</v>
-      </c>
-      <c r="T34">
-        <v>0.003107306020764704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H35">
-        <v>1.921045</v>
-      </c>
-      <c r="I35">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J35">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.2855996666666666</v>
-      </c>
-      <c r="N35">
-        <v>0.856799</v>
-      </c>
-      <c r="O35">
-        <v>0.09134314775805506</v>
-      </c>
-      <c r="P35">
-        <v>0.0913431477580551</v>
-      </c>
-      <c r="Q35">
-        <v>0.1828832705505555</v>
-      </c>
-      <c r="R35">
-        <v>1.645949434955</v>
-      </c>
-      <c r="S35">
-        <v>0.00101689570967257</v>
-      </c>
-      <c r="T35">
-        <v>0.001016895709672571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H36">
-        <v>1.921045</v>
-      </c>
-      <c r="I36">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J36">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04119366666666666</v>
-      </c>
-      <c r="N36">
-        <v>0.123581</v>
-      </c>
-      <c r="O36">
-        <v>0.01317494248136168</v>
-      </c>
-      <c r="P36">
-        <v>0.01317494248136168</v>
-      </c>
-      <c r="Q36">
-        <v>0.02637829579388888</v>
-      </c>
-      <c r="R36">
-        <v>0.237404662145</v>
-      </c>
-      <c r="S36">
-        <v>0.0001466726603287888</v>
-      </c>
-      <c r="T36">
-        <v>0.0001466726603287889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.6403483333333333</v>
-      </c>
-      <c r="H37">
-        <v>1.921045</v>
-      </c>
-      <c r="I37">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="J37">
-        <v>0.01113269834280367</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.369226</v>
-      </c>
-      <c r="N37">
-        <v>4.107678</v>
-      </c>
-      <c r="O37">
-        <v>0.4379186232669648</v>
-      </c>
-      <c r="P37">
-        <v>0.4379186232669649</v>
-      </c>
-      <c r="Q37">
-        <v>0.8767815870566666</v>
-      </c>
-      <c r="R37">
-        <v>7.89103428351</v>
-      </c>
-      <c r="S37">
-        <v>0.004875215931527004</v>
-      </c>
-      <c r="T37">
-        <v>0.004875215931527005</v>
+        <v>0.0005673507505831542</v>
       </c>
     </row>
   </sheetData>
